--- a/src/test/resource/testfile1.xlsx
+++ b/src/test/resource/testfile1.xlsx
@@ -1,72 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aarish Senthilkumar\IdeaProjects\webautomation\src\test\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6247897-F7FA-4474-9F46-E1BC80CB5111}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D6247897-F7FA-4474-9F46-E1BC80CB5111}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="13" xr2:uid="{5EEB81C0-D695-4222-AC31-C10EF5588464}"/>
+    <workbookView activeTab="13" firstSheet="3" windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{5EEB81C0-D695-4222-AC31-C10EF5588464}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="ADANIPORTS" sheetId="2" r:id="rId1"/>
-    <sheet name="ASIANPAINT" sheetId="3" r:id="rId2"/>
-    <sheet name="AXISBANK" sheetId="4" r:id="rId3"/>
-    <sheet name="BAJAJ-AUTO" sheetId="5" r:id="rId4"/>
-    <sheet name="BAJAJFINSV" sheetId="6" r:id="rId5"/>
-    <sheet name="BAJFINANCE" sheetId="7" r:id="rId6"/>
-    <sheet name="BHARTIARTL" sheetId="8" r:id="rId7"/>
-    <sheet name="BPCL" sheetId="9" r:id="rId8"/>
-    <sheet name="BRITANNIA" sheetId="10" r:id="rId9"/>
-    <sheet name="CIPLA" sheetId="11" r:id="rId10"/>
-    <sheet name="COALINDIA" sheetId="12" r:id="rId11"/>
-    <sheet name="DRREDDY" sheetId="13" r:id="rId12"/>
-    <sheet name="EICHERMOT" sheetId="14" r:id="rId13"/>
-    <sheet name="GAIL" sheetId="15" r:id="rId14"/>
-    <sheet name="GRASIM" sheetId="16" r:id="rId15"/>
-    <sheet name="HCLTECH" sheetId="17" r:id="rId16"/>
-    <sheet name="HDFC" sheetId="18" r:id="rId17"/>
-    <sheet name="HDFCBANK" sheetId="19" r:id="rId18"/>
-    <sheet name="HEROMOTOCO" sheetId="20" r:id="rId19"/>
-    <sheet name="HINDALCO" sheetId="21" r:id="rId20"/>
-    <sheet name="HINDUNILVR" sheetId="22" r:id="rId21"/>
-    <sheet name="IBULHSGFIN" sheetId="23" r:id="rId22"/>
-    <sheet name="ICICIBANK" sheetId="24" r:id="rId23"/>
-    <sheet name="INDUSINDBK" sheetId="25" r:id="rId24"/>
-    <sheet name="INFRATEL" sheetId="26" r:id="rId25"/>
-    <sheet name="INFY" sheetId="27" r:id="rId26"/>
-    <sheet name="IOC" sheetId="28" r:id="rId27"/>
-    <sheet name="ITC" sheetId="29" r:id="rId28"/>
-    <sheet name="JSWSTEEL" sheetId="30" r:id="rId29"/>
-    <sheet name="KOTAKBANK" sheetId="31" r:id="rId30"/>
-    <sheet name="LT" sheetId="32" r:id="rId31"/>
-    <sheet name="M&amp;M" sheetId="33" r:id="rId32"/>
-    <sheet name="MARUTI" sheetId="34" r:id="rId33"/>
-    <sheet name="NTPC" sheetId="35" r:id="rId34"/>
-    <sheet name="ONGC" sheetId="36" r:id="rId35"/>
-    <sheet name="POWERGRID" sheetId="37" r:id="rId36"/>
-    <sheet name="RELIANCE" sheetId="38" r:id="rId37"/>
-    <sheet name="SBIN" sheetId="39" r:id="rId38"/>
-    <sheet name="SUNPHARMA" sheetId="40" r:id="rId39"/>
-    <sheet name="TATAMOTORS" sheetId="41" r:id="rId40"/>
-    <sheet name="TATASTEEL" sheetId="42" r:id="rId41"/>
-    <sheet name="TCS" sheetId="43" r:id="rId42"/>
-    <sheet name="TECHM" sheetId="44" r:id="rId43"/>
-    <sheet name="TITAN" sheetId="45" r:id="rId44"/>
-    <sheet name="ULTRACEMCO" sheetId="46" r:id="rId45"/>
-    <sheet name="UPL" sheetId="47" r:id="rId46"/>
-    <sheet name="VEDL" sheetId="48" r:id="rId47"/>
-    <sheet name="WIPRO" sheetId="49" r:id="rId48"/>
-    <sheet name="YESBANK" sheetId="50" r:id="rId49"/>
-    <sheet name="ZEEL" sheetId="51" r:id="rId50"/>
+    <sheet name="ADANIPORTS" r:id="rId1" sheetId="2"/>
+    <sheet name="ASIANPAINT" r:id="rId2" sheetId="3"/>
+    <sheet name="AXISBANK" r:id="rId3" sheetId="4"/>
+    <sheet name="BAJAJ-AUTO" r:id="rId4" sheetId="5"/>
+    <sheet name="BAJAJFINSV" r:id="rId5" sheetId="6"/>
+    <sheet name="BAJFINANCE" r:id="rId6" sheetId="7"/>
+    <sheet name="BHARTIARTL" r:id="rId7" sheetId="8"/>
+    <sheet name="BPCL" r:id="rId8" sheetId="9"/>
+    <sheet name="BRITANNIA" r:id="rId9" sheetId="10"/>
+    <sheet name="CIPLA" r:id="rId10" sheetId="11"/>
+    <sheet name="COALINDIA" r:id="rId11" sheetId="12"/>
+    <sheet name="DRREDDY" r:id="rId12" sheetId="13"/>
+    <sheet name="EICHERMOT" r:id="rId13" sheetId="14"/>
+    <sheet name="GAIL" r:id="rId14" sheetId="15"/>
+    <sheet name="GRASIM" r:id="rId15" sheetId="16"/>
+    <sheet name="HCLTECH" r:id="rId16" sheetId="17"/>
+    <sheet name="HDFC" r:id="rId17" sheetId="18"/>
+    <sheet name="HDFCBANK" r:id="rId18" sheetId="19"/>
+    <sheet name="HEROMOTOCO" r:id="rId19" sheetId="20"/>
+    <sheet name="HINDALCO" r:id="rId20" sheetId="21"/>
+    <sheet name="HINDUNILVR" r:id="rId21" sheetId="22"/>
+    <sheet name="IBULHSGFIN" r:id="rId22" sheetId="23"/>
+    <sheet name="ICICIBANK" r:id="rId23" sheetId="24"/>
+    <sheet name="INDUSINDBK" r:id="rId24" sheetId="25"/>
+    <sheet name="INFRATEL" r:id="rId25" sheetId="26"/>
+    <sheet name="INFY" r:id="rId26" sheetId="27"/>
+    <sheet name="IOC" r:id="rId27" sheetId="28"/>
+    <sheet name="ITC" r:id="rId28" sheetId="29"/>
+    <sheet name="JSWSTEEL" r:id="rId29" sheetId="30"/>
+    <sheet name="KOTAKBANK" r:id="rId30" sheetId="31"/>
+    <sheet name="LT" r:id="rId31" sheetId="32"/>
+    <sheet name="M&amp;M" r:id="rId32" sheetId="33"/>
+    <sheet name="MARUTI" r:id="rId33" sheetId="34"/>
+    <sheet name="NTPC" r:id="rId34" sheetId="35"/>
+    <sheet name="ONGC" r:id="rId35" sheetId="36"/>
+    <sheet name="POWERGRID" r:id="rId36" sheetId="37"/>
+    <sheet name="RELIANCE" r:id="rId37" sheetId="38"/>
+    <sheet name="SBIN" r:id="rId38" sheetId="39"/>
+    <sheet name="SUNPHARMA" r:id="rId39" sheetId="40"/>
+    <sheet name="TATAMOTORS" r:id="rId40" sheetId="41"/>
+    <sheet name="TATASTEEL" r:id="rId41" sheetId="42"/>
+    <sheet name="TCS" r:id="rId42" sheetId="43"/>
+    <sheet name="TECHM" r:id="rId43" sheetId="44"/>
+    <sheet name="TITAN" r:id="rId44" sheetId="45"/>
+    <sheet name="ULTRACEMCO" r:id="rId45" sheetId="46"/>
+    <sheet name="UPL" r:id="rId46" sheetId="47"/>
+    <sheet name="VEDL" r:id="rId47" sheetId="48"/>
+    <sheet name="WIPRO" r:id="rId48" sheetId="49"/>
+    <sheet name="YESBANK" r:id="rId49" sheetId="50"/>
+    <sheet name="ZEEL" r:id="rId50" sheetId="51"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="636">
   <si>
     <t>2019-05-29</t>
   </si>
@@ -1409,12 +1409,592 @@
   </si>
   <si>
     <t>346.05</t>
+  </si>
+  <si>
+    <t>2019-07-10</t>
+  </si>
+  <si>
+    <t>406.95</t>
+  </si>
+  <si>
+    <t>408.80</t>
+  </si>
+  <si>
+    <t>402.35</t>
+  </si>
+  <si>
+    <t>404.40</t>
+  </si>
+  <si>
+    <t>1,317.80</t>
+  </si>
+  <si>
+    <t>1,340.35</t>
+  </si>
+  <si>
+    <t>1,312.05</t>
+  </si>
+  <si>
+    <t>1,322.00</t>
+  </si>
+  <si>
+    <t>786.65</t>
+  </si>
+  <si>
+    <t>790.00</t>
+  </si>
+  <si>
+    <t>764.55</t>
+  </si>
+  <si>
+    <t>768.00</t>
+  </si>
+  <si>
+    <t>2,790.00</t>
+  </si>
+  <si>
+    <t>2,793.95</t>
+  </si>
+  <si>
+    <t>2,720.55</t>
+  </si>
+  <si>
+    <t>2,738.95</t>
+  </si>
+  <si>
+    <t>7,819.90</t>
+  </si>
+  <si>
+    <t>7,907.20</t>
+  </si>
+  <si>
+    <t>7,602.65</t>
+  </si>
+  <si>
+    <t>7,611.90</t>
+  </si>
+  <si>
+    <t>3,599.95</t>
+  </si>
+  <si>
+    <t>3,412.00</t>
+  </si>
+  <si>
+    <t>3,419.00</t>
+  </si>
+  <si>
+    <t>362.90</t>
+  </si>
+  <si>
+    <t>364.90</t>
+  </si>
+  <si>
+    <t>353.65</t>
+  </si>
+  <si>
+    <t>360.15</t>
+  </si>
+  <si>
+    <t>363.40</t>
+  </si>
+  <si>
+    <t>346.00</t>
+  </si>
+  <si>
+    <t>349.85</t>
+  </si>
+  <si>
+    <t>2,762.00</t>
+  </si>
+  <si>
+    <t>2,805.00</t>
+  </si>
+  <si>
+    <t>2,742.90</t>
+  </si>
+  <si>
+    <t>2,770.00</t>
+  </si>
+  <si>
+    <t>545.35</t>
+  </si>
+  <si>
+    <t>551.15</t>
+  </si>
+  <si>
+    <t>541.85</t>
+  </si>
+  <si>
+    <t>544.05</t>
+  </si>
+  <si>
+    <t>231.40</t>
+  </si>
+  <si>
+    <t>234.50</t>
+  </si>
+  <si>
+    <t>230.05</t>
+  </si>
+  <si>
+    <t>233.50</t>
+  </si>
+  <si>
+    <t>2,594.00</t>
+  </si>
+  <si>
+    <t>2,602.90</t>
+  </si>
+  <si>
+    <t>2,572.40</t>
+  </si>
+  <si>
+    <t>2,585.50</t>
+  </si>
+  <si>
+    <t>18,990.00</t>
+  </si>
+  <si>
+    <t>19,270.95</t>
+  </si>
+  <si>
+    <t>18,650.00</t>
+  </si>
+  <si>
+    <t>18,750.00</t>
+  </si>
+  <si>
+    <t>148.30</t>
+  </si>
+  <si>
+    <t>149.20</t>
+  </si>
+  <si>
+    <t>144.30</t>
+  </si>
+  <si>
+    <t>144.85</t>
+  </si>
+  <si>
+    <t>907.70</t>
+  </si>
+  <si>
+    <t>918.90</t>
+  </si>
+  <si>
+    <t>904.75</t>
+  </si>
+  <si>
+    <t>915.20</t>
+  </si>
+  <si>
+    <t>1,035.00</t>
+  </si>
+  <si>
+    <t>1,013.10</t>
+  </si>
+  <si>
+    <t>1,020.00</t>
+  </si>
+  <si>
+    <t>2,232.00</t>
+  </si>
+  <si>
+    <t>2,253.40</t>
+  </si>
+  <si>
+    <t>2,230.95</t>
+  </si>
+  <si>
+    <t>2,378.75</t>
+  </si>
+  <si>
+    <t>2,398.00</t>
+  </si>
+  <si>
+    <t>2,366.25</t>
+  </si>
+  <si>
+    <t>2,391.20</t>
+  </si>
+  <si>
+    <t>2,450.00</t>
+  </si>
+  <si>
+    <t>2,459.00</t>
+  </si>
+  <si>
+    <t>2,392.00</t>
+  </si>
+  <si>
+    <t>2,400.05</t>
+  </si>
+  <si>
+    <t>197.40</t>
+  </si>
+  <si>
+    <t>192.50</t>
+  </si>
+  <si>
+    <t>193.45</t>
+  </si>
+  <si>
+    <t>1,739.00</t>
+  </si>
+  <si>
+    <t>1,754.90</t>
+  </si>
+  <si>
+    <t>1,703.10</t>
+  </si>
+  <si>
+    <t>1,707.00</t>
+  </si>
+  <si>
+    <t>689.00</t>
+  </si>
+  <si>
+    <t>696.00</t>
+  </si>
+  <si>
+    <t>653.50</t>
+  </si>
+  <si>
+    <t>657.70</t>
+  </si>
+  <si>
+    <t>430.00</t>
+  </si>
+  <si>
+    <t>432.70</t>
+  </si>
+  <si>
+    <t>427.20</t>
+  </si>
+  <si>
+    <t>431.70</t>
+  </si>
+  <si>
+    <t>1,501.00</t>
+  </si>
+  <si>
+    <t>1,520.75</t>
+  </si>
+  <si>
+    <t>1,468.60</t>
+  </si>
+  <si>
+    <t>1,490.05</t>
+  </si>
+  <si>
+    <t>260.10</t>
+  </si>
+  <si>
+    <t>260.95</t>
+  </si>
+  <si>
+    <t>258.15</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>709.00</t>
+  </si>
+  <si>
+    <t>722.70</t>
+  </si>
+  <si>
+    <t>706.50</t>
+  </si>
+  <si>
+    <t>717.55</t>
+  </si>
+  <si>
+    <t>150.50</t>
+  </si>
+  <si>
+    <t>151.85</t>
+  </si>
+  <si>
+    <t>144.60</t>
+  </si>
+  <si>
+    <t>148.15</t>
+  </si>
+  <si>
+    <t>273.55</t>
+  </si>
+  <si>
+    <t>275.25</t>
+  </si>
+  <si>
+    <t>270.75</t>
+  </si>
+  <si>
+    <t>272.50</t>
+  </si>
+  <si>
+    <t>263.50</t>
+  </si>
+  <si>
+    <t>264.35</t>
+  </si>
+  <si>
+    <t>252.00</t>
+  </si>
+  <si>
+    <t>255.20</t>
+  </si>
+  <si>
+    <t>1,463.00</t>
+  </si>
+  <si>
+    <t>1,481.85</t>
+  </si>
+  <si>
+    <t>1,460.85</t>
+  </si>
+  <si>
+    <t>1,470.50</t>
+  </si>
+  <si>
+    <t>1,523.80</t>
+  </si>
+  <si>
+    <t>1,529.60</t>
+  </si>
+  <si>
+    <t>1,482.70</t>
+  </si>
+  <si>
+    <t>1,498.80</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>636.10</t>
+  </si>
+  <si>
+    <t>619.10</t>
+  </si>
+  <si>
+    <t>623.50</t>
+  </si>
+  <si>
+    <t>5,959.00</t>
+  </si>
+  <si>
+    <t>5,995.00</t>
+  </si>
+  <si>
+    <t>5,900.00</t>
+  </si>
+  <si>
+    <t>5,920.00</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>131.00</t>
+  </si>
+  <si>
+    <t>128.65</t>
+  </si>
+  <si>
+    <t>128.80</t>
+  </si>
+  <si>
+    <t>153.05</t>
+  </si>
+  <si>
+    <t>154.40</t>
+  </si>
+  <si>
+    <t>149.65</t>
+  </si>
+  <si>
+    <t>151.70</t>
+  </si>
+  <si>
+    <t>204.70</t>
+  </si>
+  <si>
+    <t>206.45</t>
+  </si>
+  <si>
+    <t>203.10</t>
+  </si>
+  <si>
+    <t>205.50</t>
+  </si>
+  <si>
+    <t>1,280.05</t>
+  </si>
+  <si>
+    <t>1,289.35</t>
+  </si>
+  <si>
+    <t>1,268.70</t>
+  </si>
+  <si>
+    <t>1,277.10</t>
+  </si>
+  <si>
+    <t>360.55</t>
+  </si>
+  <si>
+    <t>361.50</t>
+  </si>
+  <si>
+    <t>351.30</t>
+  </si>
+  <si>
+    <t>354.70</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>397.35</t>
+  </si>
+  <si>
+    <t>380.60</t>
+  </si>
+  <si>
+    <t>390.45</t>
+  </si>
+  <si>
+    <t>156.25</t>
+  </si>
+  <si>
+    <t>149.10</t>
+  </si>
+  <si>
+    <t>151.90</t>
+  </si>
+  <si>
+    <t>469.50</t>
+  </si>
+  <si>
+    <t>474.35</t>
+  </si>
+  <si>
+    <t>448.05</t>
+  </si>
+  <si>
+    <t>454.15</t>
+  </si>
+  <si>
+    <t>2,127.85</t>
+  </si>
+  <si>
+    <t>2,071.30</t>
+  </si>
+  <si>
+    <t>2,105.30</t>
+  </si>
+  <si>
+    <t>671.05</t>
+  </si>
+  <si>
+    <t>684.80</t>
+  </si>
+  <si>
+    <t>675.50</t>
+  </si>
+  <si>
+    <t>1,103.00</t>
+  </si>
+  <si>
+    <t>1,125.00</t>
+  </si>
+  <si>
+    <t>1,088.35</t>
+  </si>
+  <si>
+    <t>1,102.00</t>
+  </si>
+  <si>
+    <t>4,476.00</t>
+  </si>
+  <si>
+    <t>4,529.00</t>
+  </si>
+  <si>
+    <t>4,431.65</t>
+  </si>
+  <si>
+    <t>4,468.20</t>
+  </si>
+  <si>
+    <t>635.00</t>
+  </si>
+  <si>
+    <t>646.65</t>
+  </si>
+  <si>
+    <t>627.30</t>
+  </si>
+  <si>
+    <t>637.00</t>
+  </si>
+  <si>
+    <t>161.40</t>
+  </si>
+  <si>
+    <t>162.10</t>
+  </si>
+  <si>
+    <t>156.75</t>
+  </si>
+  <si>
+    <t>160.25</t>
+  </si>
+  <si>
+    <t>264.70</t>
+  </si>
+  <si>
+    <t>269.50</t>
+  </si>
+  <si>
+    <t>263.30</t>
+  </si>
+  <si>
+    <t>266.80</t>
+  </si>
+  <si>
+    <t>92.15</t>
+  </si>
+  <si>
+    <t>94.00</t>
+  </si>
+  <si>
+    <t>91.50</t>
+  </si>
+  <si>
+    <t>93.25</t>
+  </si>
+  <si>
+    <t>332.05</t>
+  </si>
+  <si>
+    <t>340.80</t>
+  </si>
+  <si>
+    <t>330.30</t>
+  </si>
+  <si>
+    <t>333.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1442,16 +2022,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1468,10 +2048,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1506,7 +2086,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1558,7 +2138,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1669,21 +2249,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1700,7 +2280,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1752,15 +2332,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -1768,7 +2348,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1839,14 +2419,31 @@
         <v>259</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D5" t="s">
+        <v>446</v>
+      </c>
+      <c r="E5" t="s">
+        <v>447</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -1922,14 +2519,31 @@
         <v>293</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D5" t="s">
+        <v>480</v>
+      </c>
+      <c r="E5" t="s">
+        <v>481</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -2005,14 +2619,31 @@
         <v>297</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E5" t="s">
+        <v>485</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -2088,14 +2719,31 @@
         <v>301</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E5" t="s">
+        <v>489</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -2171,14 +2819,31 @@
         <v>305</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D5" t="s">
+        <v>492</v>
+      </c>
+      <c r="E5" t="s">
+        <v>493</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -2254,14 +2919,31 @@
         <v>308</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D5" t="s">
+        <v>496</v>
+      </c>
+      <c r="E5" t="s">
+        <v>497</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -2337,14 +3019,31 @@
         <v>312</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" t="s">
+        <v>500</v>
+      </c>
+      <c r="E5" t="s">
+        <v>501</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -2420,14 +3119,31 @@
         <v>316</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D5" t="s">
+        <v>503</v>
+      </c>
+      <c r="E5" t="s">
+        <v>504</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -2503,14 +3219,31 @@
         <v>320</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E5" t="s">
+        <v>507</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -2586,14 +3319,31 @@
         <v>324</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C5" t="s">
+        <v>509</v>
+      </c>
+      <c r="D5" t="s">
+        <v>510</v>
+      </c>
+      <c r="E5" t="s">
+        <v>511</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -2669,14 +3419,31 @@
         <v>328</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C5" t="s">
+        <v>513</v>
+      </c>
+      <c r="D5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E5" t="s">
+        <v>515</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -2752,14 +3519,31 @@
         <v>262</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E5" t="s">
+        <v>451</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -2835,14 +3619,31 @@
         <v>332</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D5" t="s">
+        <v>517</v>
+      </c>
+      <c r="E5" t="s">
+        <v>518</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -2918,14 +3719,31 @@
         <v>336</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D5" t="s">
+        <v>521</v>
+      </c>
+      <c r="E5" t="s">
+        <v>522</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -3001,14 +3819,31 @@
         <v>340</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C5" t="s">
+        <v>524</v>
+      </c>
+      <c r="D5" t="s">
+        <v>525</v>
+      </c>
+      <c r="E5" t="s">
+        <v>526</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -3084,14 +3919,31 @@
         <v>344</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E5" t="s">
+        <v>530</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -3167,14 +4019,31 @@
         <v>348</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D5" t="s">
+        <v>533</v>
+      </c>
+      <c r="E5" t="s">
+        <v>534</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -3250,14 +4119,31 @@
         <v>352</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C5" t="s">
+        <v>536</v>
+      </c>
+      <c r="D5" t="s">
+        <v>537</v>
+      </c>
+      <c r="E5" t="s">
+        <v>538</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -3333,14 +4219,31 @@
         <v>356</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D5" t="s">
+        <v>541</v>
+      </c>
+      <c r="E5" t="s">
+        <v>542</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -3416,14 +4319,31 @@
         <v>244</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C5" t="s">
+        <v>544</v>
+      </c>
+      <c r="D5" t="s">
+        <v>545</v>
+      </c>
+      <c r="E5" t="s">
+        <v>546</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -3499,14 +4419,31 @@
         <v>359</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C5" t="s">
+        <v>548</v>
+      </c>
+      <c r="D5" t="s">
+        <v>549</v>
+      </c>
+      <c r="E5" t="s">
+        <v>550</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -3582,14 +4519,31 @@
         <v>363</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C5" t="s">
+        <v>552</v>
+      </c>
+      <c r="D5" t="s">
+        <v>553</v>
+      </c>
+      <c r="E5" t="s">
+        <v>554</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -3665,14 +4619,31 @@
         <v>266</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D5" t="s">
+        <v>454</v>
+      </c>
+      <c r="E5" t="s">
+        <v>455</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -3748,14 +4719,31 @@
         <v>367</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C5" t="s">
+        <v>556</v>
+      </c>
+      <c r="D5" t="s">
+        <v>557</v>
+      </c>
+      <c r="E5" t="s">
+        <v>558</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -3831,14 +4819,31 @@
         <v>371</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C5" t="s">
+        <v>560</v>
+      </c>
+      <c r="D5" t="s">
+        <v>561</v>
+      </c>
+      <c r="E5" t="s">
+        <v>562</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -3914,14 +4919,31 @@
         <v>375</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C5" t="s">
+        <v>564</v>
+      </c>
+      <c r="D5" t="s">
+        <v>565</v>
+      </c>
+      <c r="E5" t="s">
+        <v>566</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -3997,14 +5019,31 @@
         <v>379</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C5" t="s">
+        <v>568</v>
+      </c>
+      <c r="D5" t="s">
+        <v>569</v>
+      </c>
+      <c r="E5" t="s">
+        <v>570</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -4080,14 +5119,31 @@
         <v>382</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D5" t="s">
+        <v>573</v>
+      </c>
+      <c r="E5" t="s">
+        <v>574</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -4163,14 +5219,31 @@
         <v>386</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E5" t="s">
+        <v>578</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -4246,14 +5319,31 @@
         <v>390</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C5" t="s">
+        <v>580</v>
+      </c>
+      <c r="D5" t="s">
+        <v>581</v>
+      </c>
+      <c r="E5" t="s">
+        <v>582</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -4329,14 +5419,31 @@
         <v>394</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D5" t="s">
+        <v>585</v>
+      </c>
+      <c r="E5" t="s">
+        <v>586</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -4412,14 +5519,31 @@
         <v>282</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>587</v>
+      </c>
+      <c r="C5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E5" t="s">
+        <v>590</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -4495,14 +5619,31 @@
         <v>401</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C5" t="s">
+        <v>592</v>
+      </c>
+      <c r="D5" t="s">
+        <v>593</v>
+      </c>
+      <c r="E5" t="s">
+        <v>594</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -4578,14 +5719,31 @@
         <v>270</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E5" t="s">
+        <v>459</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -4661,14 +5819,31 @@
         <v>405</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C5" t="s">
+        <v>595</v>
+      </c>
+      <c r="D5" t="s">
+        <v>596</v>
+      </c>
+      <c r="E5" t="s">
+        <v>597</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -4744,14 +5919,31 @@
         <v>409</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C5" t="s">
+        <v>599</v>
+      </c>
+      <c r="D5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E5" t="s">
+        <v>601</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -4827,14 +6019,31 @@
         <v>412</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D5" t="s">
+        <v>603</v>
+      </c>
+      <c r="E5" t="s">
+        <v>604</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -4910,14 +6119,31 @@
         <v>416</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>605</v>
+      </c>
+      <c r="C5" t="s">
+        <v>606</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" t="s">
+        <v>607</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -4993,14 +6219,31 @@
         <v>420</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>608</v>
+      </c>
+      <c r="C5" t="s">
+        <v>609</v>
+      </c>
+      <c r="D5" t="s">
+        <v>610</v>
+      </c>
+      <c r="E5" t="s">
+        <v>611</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -5076,14 +6319,31 @@
         <v>424</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D5" t="s">
+        <v>614</v>
+      </c>
+      <c r="E5" t="s">
+        <v>615</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -5159,14 +6419,31 @@
         <v>428</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C5" t="s">
+        <v>617</v>
+      </c>
+      <c r="D5" t="s">
+        <v>618</v>
+      </c>
+      <c r="E5" t="s">
+        <v>619</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -5242,14 +6519,31 @@
         <v>432</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C5" t="s">
+        <v>621</v>
+      </c>
+      <c r="D5" t="s">
+        <v>622</v>
+      </c>
+      <c r="E5" t="s">
+        <v>623</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -5325,14 +6619,31 @@
         <v>436</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D5" t="s">
+        <v>626</v>
+      </c>
+      <c r="E5" t="s">
+        <v>627</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -5408,14 +6719,31 @@
         <v>440</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C5" t="s">
+        <v>629</v>
+      </c>
+      <c r="D5" t="s">
+        <v>630</v>
+      </c>
+      <c r="E5" t="s">
+        <v>631</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -5491,14 +6819,31 @@
         <v>274</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C5" t="s">
+        <v>461</v>
+      </c>
+      <c r="D5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E5" t="s">
+        <v>463</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -5506,10 +6851,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5580,14 +6925,31 @@
         <v>442</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>632</v>
+      </c>
+      <c r="C5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D5" t="s">
+        <v>634</v>
+      </c>
+      <c r="E5" t="s">
+        <v>635</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -5663,14 +7025,31 @@
         <v>278</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E5" t="s">
+        <v>466</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -5746,14 +7125,31 @@
         <v>282</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -5829,14 +7225,31 @@
         <v>285</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D5" t="s">
+        <v>472</v>
+      </c>
+      <c r="E5" t="s">
+        <v>473</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -5912,7 +7325,24 @@
         <v>289</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D5" t="s">
+        <v>476</v>
+      </c>
+      <c r="E5" t="s">
+        <v>477</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>